--- a/Documentation/Estimate of Person Hours.xlsx
+++ b/Documentation/Estimate of Person Hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\College 4th Semester\EECS 448\Project3\Team2-Project3\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\School\College 4th Semester\EECS 448\Project4\Team2-Project4\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C5793-EF5C-4301-A4DD-C4B1B8588BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AECCD0-BBAE-441B-9548-7856076E005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{1728A804-B47B-4D38-AC7D-8F81321A577B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Stories</t>
   </si>
@@ -132,22 +132,25 @@
     <t>21 Points</t>
   </si>
   <si>
-    <t>Project 3 estimated to be a 13 point story</t>
-  </si>
-  <si>
     <t>Estimate for project 3 is based on the estimates for 13 point assignments</t>
   </si>
   <si>
-    <t>We expect project 3 to take a similar amount of time to project 1, but not quite as much as Project 2 since we are just making the prototype right now.</t>
-  </si>
-  <si>
     <t>1 Story Point = 1 hour</t>
   </si>
   <si>
-    <t>We need to create an interface to store quizzes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create at least one quiz </t>
+    <t>Project 4 estimated to be a 13 point story</t>
+  </si>
+  <si>
+    <t>448 Project 3</t>
+  </si>
+  <si>
+    <t>We expect project 4 to take a similar amount of time to project 3, but not quite as much as Project 2 since we already built the prototype for project 3.</t>
+  </si>
+  <si>
+    <t>We need to create more quizzes and functionality.</t>
+  </si>
+  <si>
+    <t>Implement quiz generator</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -610,24 +613,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -637,12 +645,12 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">

--- a/Documentation/Estimate of Person Hours.xlsx
+++ b/Documentation/Estimate of Person Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\School\College 4th Semester\EECS 448\Project4\Team2-Project4\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AECCD0-BBAE-441B-9548-7856076E005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E97506-04E8-44DF-9699-EE3D06DE6593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{1728A804-B47B-4D38-AC7D-8F81321A577B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Stories</t>
   </si>
@@ -123,34 +123,34 @@
     <t>Meetings.  Probably around 2 hr</t>
   </si>
   <si>
-    <t>Code writing will take up most of our time. Probably around 8 hrs</t>
-  </si>
-  <si>
     <t>448 Project 2</t>
   </si>
   <si>
     <t>21 Points</t>
   </si>
   <si>
-    <t>Estimate for project 3 is based on the estimates for 13 point assignments</t>
-  </si>
-  <si>
     <t>1 Story Point = 1 hour</t>
   </si>
   <si>
-    <t>Project 4 estimated to be a 13 point story</t>
-  </si>
-  <si>
     <t>448 Project 3</t>
   </si>
   <si>
-    <t>We expect project 4 to take a similar amount of time to project 3, but not quite as much as Project 2 since we already built the prototype for project 3.</t>
-  </si>
-  <si>
     <t>We need to create more quizzes and functionality.</t>
   </si>
   <si>
     <t>Implement quiz generator</t>
+  </si>
+  <si>
+    <t>Project 4 estimated to be a 21 point story</t>
+  </si>
+  <si>
+    <t>Project 4 is a larger project, more comparable to project 2 or larger.</t>
+  </si>
+  <si>
+    <t>We expect project 4 to take more time than project 3, similar to Project 2 since we are implementing a react app version of our prototype.</t>
+  </si>
+  <si>
+    <t>Code writing will take up most of our time. Probably around 16 hrs</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
@@ -615,42 +615,42 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
